--- a/nss/MASTER_NSS/state_code_0812.xlsx
+++ b/nss/MASTER_NSS/state_code_0812.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb500886\OneDrive - WBG\7_Housing\survey_all\Housing_git\nss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb500886\OneDrive - WBG\7_Housing\survey_all\Housing_git\nss\MASTER_NSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{5B2A50D2-380F-4B1E-B0D7-387A5383BA33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8CD8230C-9368-403D-BA26-5700152AA792}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31200" yWindow="1350" windowWidth="19425" windowHeight="10425" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="census_91" sheetId="9" r:id="rId1"/>
@@ -5150,7 +5150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6162,8 +6162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A96C9-8869-4134-87BF-84F06859747A}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6599,7 +6599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0FB5B7-5CA4-4591-841B-A491FCDD586C}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -7184,18 +7184,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7218,26 +7218,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED09FCC8-1A66-4485-969D-A382B2F6C8A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A433FD8D-0260-4BE3-9E9A-3CF6F8A73258}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
-    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A433FD8D-0260-4BE3-9E9A-3CF6F8A73258}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED09FCC8-1A66-4485-969D-A382B2F6C8A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>